--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1072562.417878774</v>
+        <v>1021242.756534408</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.95395642</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728815</v>
+        <v>9102620.618728811</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335.3138620892173</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,7 +712,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>163.1482332545331</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,13 +788,13 @@
         <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325221</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>155.3197306044664</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>193.916802794058</v>
       </c>
       <c r="F5" t="n">
-        <v>317.0837352438114</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -980,7 +980,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>147.445065564638</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1031,7 +1031,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888678</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9.275596830496642</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>205.1332020905459</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>42.52353645864895</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>190.322639827404</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>43.99240337009266</v>
       </c>
       <c r="I10" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>380.4008371885852</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>334.58170967322</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>78.7087011346524</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>226.5550410134733</v>
+        <v>134.9350980717655</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>134.6751203255735</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>117.1560086992565</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>352.5118528534868</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>100.3618971784017</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>127.0044127072328</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>77.39042090546079</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2089,19 +2089,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>226.6923789939715</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>219.5718016343155</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>60.38235645081242</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>34.02048567924309</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>221.0021786982958</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>356.681260877744</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.1944522398488</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>269.5134569480836</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>252.7997379202395</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.7806877295491</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.2114886365809</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>36.44021398462754</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>60.77270032618394</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>62.56386682245563</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>10.43941339835948</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>134.8122206876834</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>269.5134569480826</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553064</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3192,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>70.80276983270126</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.78350070179</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>327.5791098658726</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>339.039918580681</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>48.97699675700473</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>82.92375604299495</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>269.5134569480836</v>
       </c>
       <c r="H38" t="n">
-        <v>76.96510530585617</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481175</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,16 +3675,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="H40" t="n">
-        <v>99.34508049624266</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>371.7293199355292</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>30.51821258765311</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.41850321461109</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>62.34212692452513</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>307.9895902233669</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>344.1817005112655</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229334</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>80.30846669433819</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C2" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D2" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>207.4089578252748</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>207.4089578252748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>1363.553390680693</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4436,10 +4436,10 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>550.5654064942401</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>550.5654064942401</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.981643776797</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="E5" t="n">
-        <v>792.1933911785527</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757142</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.54400078133</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
         <v>665.1105362747051</v>
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4682,13 +4682,13 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4752,25 +4752,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>99.5995062532301</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>99.5995062532301</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W7" t="n">
-        <v>99.5995062532301</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.304160219349</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>840.9500001553076</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>482.6843015485571</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>96.89604895031289</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>96.89604895031289</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2504.904000283471</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2504.904000283471</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>2504.904000283471</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X8" t="n">
-        <v>2504.904000283471</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2504.904000283471</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="9">
@@ -4865,25 +4865,25 @@
         <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>266.206002764199</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810045</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810045</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810045</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810045</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810045</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810045</v>
+        <v>98.37975290126613</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810045</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810045</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1546.944160717209</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="C11" t="n">
-        <v>1546.944160717209</v>
+        <v>1214.415758416388</v>
       </c>
       <c r="D11" t="n">
-        <v>1188.678462110459</v>
+        <v>856.1500598096375</v>
       </c>
       <c r="E11" t="n">
-        <v>802.8902095122144</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>391.9043047226068</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X11" t="n">
-        <v>2323.683332757143</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="Y11" t="n">
-        <v>1933.544000781331</v>
+        <v>1583.3782753568</v>
       </c>
     </row>
     <row r="12">
@@ -5096,73 +5096,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M12" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.7120650600564</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C13" t="n">
-        <v>698.7120650600564</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D13" t="n">
-        <v>698.7120650600564</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E13" t="n">
-        <v>698.7120650600564</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,7 +5208,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
         <v>529.6040388502502</v>
@@ -5217,34 +5217,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600564</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600564</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600564</v>
+        <v>648.6252456865836</v>
       </c>
       <c r="W13" t="n">
-        <v>698.7120650600564</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="X13" t="n">
-        <v>698.7120650600564</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.7120650600564</v>
+        <v>359.2080756496231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2224.752638628377</v>
+        <v>1352.258819987542</v>
       </c>
       <c r="C14" t="n">
-        <v>1855.790121687965</v>
+        <v>1352.258819987542</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.524423081215</v>
+        <v>993.9931213807911</v>
       </c>
       <c r="E14" t="n">
-        <v>1111.73617048297</v>
+        <v>608.2048687825468</v>
       </c>
       <c r="F14" t="n">
-        <v>700.7502656933627</v>
+        <v>608.2048687825468</v>
       </c>
       <c r="G14" t="n">
-        <v>282.7864575915496</v>
+        <v>190.2410606807337</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5284,7 +5284,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5293,10 +5293,10 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
@@ -5308,22 +5308,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>2224.752638628377</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W14" t="n">
-        <v>2224.752638628377</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X14" t="n">
-        <v>2224.752638628377</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y14" t="n">
-        <v>2224.752638628377</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="15">
@@ -5339,19 +5339,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5360,16 +5360,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641986</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598705</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>698.7120650600561</v>
+        <v>319.1723320447966</v>
       </c>
       <c r="C16" t="n">
-        <v>698.7120650600561</v>
+        <v>319.1723320447966</v>
       </c>
       <c r="D16" t="n">
-        <v>698.7120650600561</v>
+        <v>319.1723320447966</v>
       </c>
       <c r="E16" t="n">
-        <v>698.7120650600561</v>
+        <v>319.1723320447966</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>172.2823845468862</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>172.2823845468862</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T16" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="U16" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="V16" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="W16" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="X16" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750363</v>
       </c>
       <c r="Y16" t="n">
-        <v>698.7120650600561</v>
+        <v>500.8207968750363</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1595.875667274026</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C17" t="n">
-        <v>1595.875667274026</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D17" t="n">
-        <v>1595.875667274026</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E17" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F17" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036444</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2540.744747833158</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2322.110080805221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2322.110080805221</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V17" t="n">
-        <v>2322.110080805221</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W17" t="n">
-        <v>1969.341425535106</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X17" t="n">
-        <v>1595.875667274026</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y17" t="n">
-        <v>1595.875667274026</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
         <v>2525.076107152626</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>182.2302673832259</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C19" t="n">
-        <v>182.2302673832259</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>132.1151241491127</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>132.1151241491127</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036444</v>
@@ -5694,31 +5694,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>471.4038777286579</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U19" t="n">
-        <v>182.2302673832259</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V19" t="n">
-        <v>182.2302673832259</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W19" t="n">
-        <v>182.2302673832259</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X19" t="n">
-        <v>182.2302673832259</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y19" t="n">
-        <v>182.2302673832259</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C20" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D20" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E20" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F20" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533135</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N20" t="n">
         <v>1836.345445977174</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548715</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U20" t="n">
-        <v>2413.138200544704</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V20" t="n">
-        <v>2082.075313201133</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="W20" t="n">
-        <v>1729.306657931019</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X20" t="n">
-        <v>1729.306657931019</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y20" t="n">
-        <v>1339.167325955207</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="21">
@@ -5837,19 +5837,19 @@
         <v>309.1903022614629</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2697.149091018222</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="C22" t="n">
-        <v>2697.149091018222</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="D22" t="n">
-        <v>2547.032451605886</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="E22" t="n">
-        <v>2486.040172362641</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="F22" t="n">
-        <v>2486.040172362641</v>
+        <v>257.3069090307624</v>
       </c>
       <c r="G22" t="n">
-        <v>2317.040372100974</v>
+        <v>88.30710876909484</v>
       </c>
       <c r="H22" t="n">
-        <v>2159.291999533504</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y22" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C23" t="n">
-        <v>825.2129885066831</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D23" t="n">
-        <v>825.2129885066831</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E23" t="n">
-        <v>825.2129885066831</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>414.2270837170756</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
         <v>1748.695370517453</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X25" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1491.915471247702</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="C26" t="n">
-        <v>1122.952954307291</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D26" t="n">
-        <v>1122.952954307291</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>737.1647017090463</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F26" t="n">
-        <v>326.1787969194388</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>1914.370678532365</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>1561.602023262251</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.654643287636</v>
+        <v>1188.136265001171</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.515311311824</v>
+        <v>797.9969330253591</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6423,13 +6423,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>210.7222632714563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1157.367208492925</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C29" t="n">
-        <v>1157.367208492925</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>799.1015098861747</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E29" t="n">
-        <v>799.1015098861747</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F29" t="n">
-        <v>799.1015098861747</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036444</v>
@@ -6469,7 +6469,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2660.340794064053</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W29" t="n">
-        <v>2307.572138793938</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="X29" t="n">
-        <v>1934.106380532859</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="Y29" t="n">
-        <v>1543.967048557047</v>
+        <v>1995.909162857191</v>
       </c>
     </row>
     <row r="30">
@@ -6548,16 +6548,16 @@
         <v>309.1903022614629</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E31" t="n">
-        <v>580.2158906240411</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F31" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036444</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1491.915471247701</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.95295430729</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D32" t="n">
-        <v>1122.95295430729</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E32" t="n">
-        <v>737.1647017090454</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F32" t="n">
-        <v>326.1787969194378</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036443</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548715</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548715</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W32" t="n">
-        <v>2642.120401548715</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X32" t="n">
-        <v>2268.654643287635</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y32" t="n">
-        <v>1878.515311311823</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747038</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692483</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102423994</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430046</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036443</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036443</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036443</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036443</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036443</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1920.409918978288</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="C35" t="n">
-        <v>1551.447402037877</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="D35" t="n">
-        <v>1193.181703431126</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="E35" t="n">
-        <v>807.3934508328821</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>396.4075460432745</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018222</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>1540.97540443929</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.00975904241</v>
+        <v>1540.97540443929</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>365.6939024587807</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>549.6493205341535</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C38" t="n">
-        <v>549.6493205341535</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D38" t="n">
-        <v>549.6493205341535</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E38" t="n">
-        <v>549.6493205341535</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F38" t="n">
-        <v>549.6493205341535</v>
+        <v>326.1787969194388</v>
       </c>
       <c r="G38" t="n">
-        <v>131.6855124323404</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.483574129469</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859355</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X38" t="n">
-        <v>936.2491605982752</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y38" t="n">
-        <v>936.2491605982752</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.81559303506</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
         <v>2568.06040664989</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>336.2769833124028</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C40" t="n">
-        <v>336.2769833124028</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D40" t="n">
-        <v>336.2769833124028</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="E40" t="n">
-        <v>336.2769833124028</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="F40" t="n">
-        <v>336.2769833124028</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="G40" t="n">
-        <v>336.2769833124028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.712065060056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y40" t="n">
-        <v>336.2769833124028</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1567.641263708174</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C41" t="n">
-        <v>1198.678746767762</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="D41" t="n">
-        <v>840.4130481610116</v>
+        <v>913.7191720730509</v>
       </c>
       <c r="E41" t="n">
-        <v>840.4130481610116</v>
+        <v>913.7191720730509</v>
       </c>
       <c r="F41" t="n">
-        <v>429.427143371404</v>
+        <v>502.7332672834434</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036443</v>
+        <v>84.76945918163022</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036443</v>
+        <v>84.76945918163022</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018221</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018221</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.380435748107</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.380435748107</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y41" t="n">
-        <v>1954.241103772295</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615927</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
         <v>1748.695370517453</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.8558756644251</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C43" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>660.0294860098572</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>660.0294860098572</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>660.0294860098572</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U43" t="n">
-        <v>370.8558756644251</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V43" t="n">
-        <v>370.8558756644251</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W43" t="n">
-        <v>370.8558756644251</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X43" t="n">
-        <v>370.8558756644251</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y43" t="n">
-        <v>370.8558756644251</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1181.549686895096</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C44" t="n">
-        <v>812.5871699546847</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
-        <v>812.5871699546847</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E44" t="n">
-        <v>812.5871699546847</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F44" t="n">
-        <v>401.6012651650771</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
         <v>169.7108380533141</v>
@@ -7654,7 +7654,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7666,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>2311.057514205144</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1958.28885893503</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1958.28885893503</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y44" t="n">
-        <v>1568.149526959218</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036443</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>579.982325640618</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>579.982325640618</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>429.8656862282822</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>281.9525926458891</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>135.0626451479788</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>135.0626451479788</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>579.982325640618</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>579.982325640618</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V46" t="n">
-        <v>579.982325640618</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W46" t="n">
-        <v>579.982325640618</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X46" t="n">
-        <v>579.982325640618</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>579.982325640618</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142006</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8947,7 +8947,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599038</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720731</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,7 +9728,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,7 +9965,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>327.421860962789</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992669</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10436,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>422.2865794093286</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951791</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951791</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451766</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9238900028835</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.41997957426332</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>206.5828674239359</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>11.99007165458451</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22767,13 +22767,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551389</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>188.0135672782038</v>
       </c>
       <c r="F5" t="n">
-        <v>89.79231049790008</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22919,7 +22919,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,22 +22992,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>20.57645329849129</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>371.260633562146</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>60.90152768088527</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23196,13 +23196,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>112.1784854717025</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.529532883676552</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>79.20246034757503</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>10.74592769735753</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801578</v>
@@ -23469,7 +23469,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>146.3264043234319</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>97.36773175088385</v>
+        <v>188.9876746925916</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>10.74592769735776</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>39.01488014253857</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>30.22198880999377</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
         <v>151.9313162448613</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>74.05381563056982</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>21.61106031097955</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>89.91938135359013</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,19 +23977,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>24.53178851431784</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>108.1804568358194</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>86.05160619575676</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>122.1504031625521</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
         <v>45.19995918853701</v>
@@ -24183,7 +24183,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>144.2707130727118</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>57.10290914305097</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24268,7 +24268,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>3.11535001920214</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923383</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>144.2707130727114</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24496,16 +24496,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>74.95252054989538</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.8347852886633</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24736,19 +24736,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>291.3120444855074</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>288.4682683912291</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>82.85718120047562</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
         <v>45.19995918853701</v>
@@ -24891,19 +24891,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>215.2702419906777</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>247.1181493845784</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>144.2707130727123</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24973,19 +24973,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25080,25 +25080,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634965</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,10 +25119,10 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>157.4983735401877</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>54.35126020638921</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>74.744251440114</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481175</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,28 +25314,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>118.3328055020462</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853702</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>142.1113494150893</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="H38" t="n">
-        <v>246.957667458501</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>65.52911452950187</v>
       </c>
       <c r="H40" t="n">
-        <v>56.82580834555249</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>42.0548500852658</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>121.4131036572081</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481175</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,7 +25684,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,28 +25788,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>79.24668876554676</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>189.7955163993029</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>69.60246950952944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
@@ -25924,10 +25924,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26028,25 +26028,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>75.86242214745695</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>746197.0650754839</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>746197.0650754836</v>
+        <v>746197.065075484</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>746197.065075484</v>
+        <v>746197.0650754838</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>746197.0650754838</v>
+        <v>746197.0650754839</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="C2" t="n">
         <v>274694.9795149697</v>
@@ -26322,37 +26322,37 @@
         <v>274694.9795149697</v>
       </c>
       <c r="E2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.97951497</v>
       </c>
       <c r="F2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149696</v>
       </c>
       <c r="G2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="H2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="I2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="K2" t="n">
         <v>274694.9795149697</v>
       </c>
       <c r="L2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="M2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="N2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="M2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149699</v>
-      </c>
       <c r="O2" t="n">
-        <v>274694.9795149697</v>
+        <v>274694.9795149698</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149697</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="D4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="E4" t="n">
+        <v>9371.018034361485</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9371.018034361481</v>
+      </c>
+      <c r="G4" t="n">
         <v>9371.018034361483</v>
       </c>
-      <c r="F4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>9371.018034361481</v>
+      </c>
+      <c r="I4" t="n">
         <v>9371.018034361485</v>
       </c>
-      <c r="H4" t="n">
-        <v>9371.018034361483</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9371.018034361483</v>
-      </c>
       <c r="J4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="K4" t="n">
         <v>9371.018034361483</v>
       </c>
       <c r="L4" t="n">
-        <v>9371.018034361481</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="M4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="N4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="O4" t="n">
         <v>9371.018034361485</v>
       </c>
       <c r="P4" t="n">
-        <v>9371.018034361483</v>
+        <v>9371.018034361485</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="F5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26499,7 +26499,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340945</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407502.9957973456</v>
+        <v>-413571.4095431646</v>
       </c>
       <c r="C6" t="n">
-        <v>182464.8834171988</v>
+        <v>176396.4696713796</v>
       </c>
       <c r="D6" t="n">
-        <v>182464.8834171988</v>
+        <v>176396.4696713795</v>
       </c>
       <c r="E6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713798</v>
       </c>
       <c r="F6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713795</v>
       </c>
       <c r="G6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713798</v>
       </c>
       <c r="H6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="I6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="J6" t="n">
-        <v>39669.26422460585</v>
+        <v>33600.85047878674</v>
       </c>
       <c r="K6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="L6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="M6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="N6" t="n">
-        <v>216092.4834171989</v>
+        <v>210024.0696713796</v>
       </c>
       <c r="O6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713797</v>
       </c>
       <c r="P6" t="n">
-        <v>216092.4834171988</v>
+        <v>210024.0696713795</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26767,19 +26767,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
@@ -26810,28 +26810,28 @@
         <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31767,34 +31767,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,40 +31831,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I12" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
@@ -31873,7 +31873,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,25 +31934,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,43 +31995,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,25 +32171,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33411,46 +33411,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M34" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N34" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,46 +33648,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M37" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N37" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479577</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M40" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N40" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
         <v>155.1528646479577</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M43" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N43" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554464</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633793</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.64752920647355</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141105</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.84709008118891</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O45" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
         <v>155.1528646479577</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034979</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0534542921061915</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078608</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644439</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302235</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M46" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N46" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175839</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383796</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678005</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047518</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35415,22 +35415,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35582,10 +35582,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898681</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L15" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
         <v>173.8110948137341</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35819,10 +35819,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M18" t="n">
         <v>529.4413268262938</v>
@@ -35980,7 +35980,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181304</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36205,7 +36205,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245897</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245897</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36928,7 +36928,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328944</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>486.0228424856224</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.811094813734</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M34" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N34" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M37" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N37" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.392610473064</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M40" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N40" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>439.8839133355132</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M43" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N43" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>515.9012490932201</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.8709020871395</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M46" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N46" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O46" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873145</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
